--- a/cred/cred.xlsx
+++ b/cred/cred.xlsx
@@ -19,7 +19,7 @@
     <t>devi</t>
   </si>
   <si>
-    <t>Chirag@1</t>
+    <t>ChiragGarg@1</t>
   </si>
 </sst>
 </file>

--- a/cred/cred.xlsx
+++ b/cred/cred.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>devi</t>
+    <t xml:space="preserve">devi </t>
   </si>
   <si>
     <t>ChiragGarg@1</t>
